--- a/報表/現金繳費.xlsx
+++ b/報表/現金繳費.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYC\Desktop\東華\113宿營\報表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C2F0E35-D753-4F1D-AF8B-9B22D152E15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14511D99-EE8F-436D-8270-AF2D46965E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85B6DEAC-BD50-4798-A6A1-27F4DE9497C9}"/>
+    <workbookView xWindow="3456" yWindow="2460" windowWidth="17280" windowHeight="8880" xr2:uid="{85B6DEAC-BD50-4798-A6A1-27F4DE9497C9}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>李欣祐</t>
   </si>
@@ -70,6 +70,9 @@
   <si>
     <t>繳費與否</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃賢溥</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,6 +147,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -460,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C833833D-3A17-4080-B853-C6E4C642E2AF}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -570,6 +579,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>411321406</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
